--- a/medicine/Mort/Décès_en_1902/Décès_en_1902.xlsx
+++ b/medicine/Mort/Décès_en_1902/Décès_en_1902.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>25 janvier : Germain Détanger, peintre français (° 27 juillet 1846).
 28 janvier : 28 janvier : Carlo Gastini, relieur, enseignant, acteur et poète (° 23 janvier 1833).</t>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er février : Salomon Jadassohn, pianiste et compositeur allemand (° 13 août 1831).
 7 février :
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 mars : Henri Gourgouillon, sculpteur français (° 16 janvier 1858).
 8 mars : Paul Flandrin, peintre français (° 28 mai 1811).
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 avril : Jean-Louis Dubut de Laforest, écrivain français (° 24 juillet 1853).
 12 avril : Alfred Cornu, physicien français, académicien (° 6 mars 1841).
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,7 +684,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>7 mai : Guido Boggiani, peintre, dessinateur, photographe et ethnologue italien (° 25 septembre 1861).
 8 mai : Paul Merwart, peintre franco-polonais (° 25 mars 1855).
@@ -687,7 +709,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -705,7 +727,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>11 juin : Ali III Bey, bey de Tunis (° 14 août 1817).
 17 juin : Karl Piutti, compositeur, organiste virtuose, professeur et critique musical allemand (° 30 avril 1845).
@@ -723,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,7 +765,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>6 juillet : Maria Goretti, sainte italienne (° 16 octobre 1890).
 13 juillet : Benjamin Bilse, maître de chapelle, directeur musical et compositeur allemand (° 17 août 1816).
@@ -757,7 +783,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -775,7 +801,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2 août : Tomás O'Ryan, militaire et homme politique espagnol, ministre de la Guerre (° 30 mars 1821).
 3 août :
@@ -796,7 +824,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -814,7 +842,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1 septembre : Georges Henri Guittet, sculpteur français (° 13 mars 1871).
 5 septembre : Rudolf Virchow, médecin pathologiste et homme politique allemand (° 13 octobre 1821).
@@ -836,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -854,7 +884,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>7 octobre : Julie Wilhelmine Hagen-Schwarz, peintre germano-balte (° 27 octobre 1824).
 22 octobre : Charles Pilard, homme de lettres et musicien français (° 23 mars 1843).
@@ -868,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -886,7 +918,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>5 novembre : Louis Hector Pron, peintre français (° 29 décembre 1817).
 23 novembre : Alfred Cluysenaar, peintre belge (° 24 septembre 1837).
@@ -900,7 +934,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -918,7 +952,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>7 décembre : Pierre-Paul Dehérain, économiste français, académicien (° 19 avril 1830).
 8 décembre : Paul Hautefeuille, minéralogiste français, académicien (° 2 décembre 1836).
@@ -936,7 +972,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1902</t>
+          <t>Décès_en_1902</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -954,7 +990,9 @@
           <t>Date précise inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Thano Kanacaris, homme politique grec (° 1830).
 Kitahimbwa, roi omukama de Bunyoro aujourd'hui Ouganda (° 1869).
